--- a/CommonGardenExperiment_2020Data/raw_data/Weevil_Damage/2020_Datacollection4_WeevilScarLength.xlsx
+++ b/CommonGardenExperiment_2020Data/raw_data/Weevil_Damage/2020_Datacollection4_WeevilScarLength.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbrei\Documents\R_Projects\Chapter2_KSR\CommonGardenExperiment_2020Data\raw_data\Weevil_Damage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbrei\Documents\R_Projects\chapter_two\CommonGardenExperiment_2020Data\raw_data\Weevil_Damage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B65695B-7B40-4B20-813C-1B487D3CF276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A5042C-092B-4161-8A9D-F4162EB9CF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Small scar graph" sheetId="3" r:id="rId3"/>
-    <sheet name="Protocol" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$K$1:$K$967</definedName>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="15">
   <si>
     <t>Row</t>
   </si>
@@ -81,20 +78,6 @@
     <t>7/27/2020</t>
   </si>
   <si>
-    <t>Scar</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Avg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methodology: sum up all scars for all ramets per pot- even those scars that are relatively short (~5 cm or shorter) and don't resemble the typical linear scars. Like Kavya mentioned a couple weeks ago, we did find evidence suggesting oviposition within these small scars when we probed plants growing outside the plot.
-For the short scars that represent potential singleton eggs, if you are confident that they typically represent egg holes, then I suggest determining their avg length (eg N=20 singletons) and then just count those to save time. Afterwards, add their length to the long ones as  number single holes * avg length of single holes
-</t>
-  </si>
-  <si>
     <t>Scar_length_mm_nocalculations</t>
   </si>
   <si>
@@ -105,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -133,30 +116,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,12 +133,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE599"/>
         <bgColor rgb="FFFFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -260,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -364,17 +324,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -393,356 +343,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Small scar graph'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Length</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Small scar graph'!$B$2:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>3.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.52</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.94</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.68</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.84</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.96</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.61</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.67</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.4900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.48</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.1655000000000006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6BA8-4662-8C0E-CD3C8688593B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1358164807"/>
-        <c:axId val="341682636"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1358164807"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="341682636"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="341682636"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1358164807"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -949,7 +549,7 @@
   <dimension ref="A1:K967"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C942" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L954" sqref="L954"/>
@@ -998,10 +598,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1443,7 +1043,7 @@
       <c r="F14" s="10">
         <v>5</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="37">
         <v>44043</v>
       </c>
       <c r="H14" s="13">
@@ -1478,7 +1078,7 @@
       <c r="F15" s="10">
         <v>5</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="37">
         <v>44043</v>
       </c>
       <c r="H15" s="13">
@@ -1513,7 +1113,7 @@
       <c r="F16" s="16">
         <v>1</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="37">
         <v>44043</v>
       </c>
       <c r="H16" s="19">
@@ -1548,7 +1148,7 @@
       <c r="F17" s="10">
         <v>5</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="37">
         <v>44043</v>
       </c>
       <c r="H17" s="13">
@@ -1583,7 +1183,7 @@
       <c r="F18" s="10">
         <v>5</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="37">
         <v>44043</v>
       </c>
       <c r="H18" s="13">
@@ -1618,7 +1218,7 @@
       <c r="F19" s="10">
         <v>2</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="37">
         <v>44043</v>
       </c>
       <c r="H19" s="13">
@@ -1653,7 +1253,7 @@
       <c r="F20" s="16">
         <v>2</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="37">
         <v>44043</v>
       </c>
       <c r="H20" s="19">
@@ -1688,7 +1288,7 @@
       <c r="F21" s="10">
         <v>5</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="37">
         <v>44043</v>
       </c>
       <c r="H21" s="13">
@@ -1723,7 +1323,7 @@
       <c r="F22" s="16">
         <v>2</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="37">
         <v>44043</v>
       </c>
       <c r="H22" s="19">
@@ -1758,7 +1358,7 @@
       <c r="F23" s="10">
         <v>5</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="37">
         <v>44043</v>
       </c>
       <c r="H23" s="13">
@@ -1793,7 +1393,7 @@
       <c r="F24" s="16">
         <v>5</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="37">
         <v>44043</v>
       </c>
       <c r="H24" s="19">
@@ -1828,7 +1428,7 @@
       <c r="F25" s="10">
         <v>5</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="37">
         <v>44043</v>
       </c>
       <c r="H25" s="13">
@@ -1863,7 +1463,7 @@
       <c r="F26" s="10">
         <v>2</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="37">
         <v>44043</v>
       </c>
       <c r="H26" s="13">
@@ -1898,7 +1498,7 @@
       <c r="F27" s="10">
         <v>4</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="37">
         <v>44043</v>
       </c>
       <c r="H27" s="13">
@@ -1933,7 +1533,7 @@
       <c r="F28" s="10">
         <v>5</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="37">
         <v>44043</v>
       </c>
       <c r="H28" s="13">
@@ -1968,7 +1568,7 @@
       <c r="F29" s="10">
         <v>4</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="37">
         <v>44043</v>
       </c>
       <c r="H29" s="13">
@@ -2003,7 +1603,7 @@
       <c r="F30" s="10">
         <v>2</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="37">
         <v>44043</v>
       </c>
       <c r="H30" s="13">
@@ -2038,7 +1638,7 @@
       <c r="F31" s="10">
         <v>4</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="37">
         <v>44043</v>
       </c>
       <c r="H31" s="13">
@@ -2073,7 +1673,7 @@
       <c r="F32" s="10">
         <v>1</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="37">
         <v>44043</v>
       </c>
       <c r="H32" s="13">
@@ -2108,7 +1708,7 @@
       <c r="F33" s="10">
         <v>2</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="37">
         <v>44043</v>
       </c>
       <c r="H33" s="13">
@@ -2143,7 +1743,7 @@
       <c r="F34" s="10">
         <v>5</v>
       </c>
-      <c r="G34" s="45">
+      <c r="G34" s="37">
         <v>44043</v>
       </c>
       <c r="H34" s="13">
@@ -2178,7 +1778,7 @@
       <c r="F35" s="10">
         <v>3</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="37">
         <v>44043</v>
       </c>
       <c r="H35" s="13">
@@ -2213,7 +1813,7 @@
       <c r="F36" s="10">
         <v>2</v>
       </c>
-      <c r="G36" s="45">
+      <c r="G36" s="37">
         <v>44043</v>
       </c>
       <c r="H36" s="13">
@@ -2248,7 +1848,7 @@
       <c r="F37" s="16">
         <v>1</v>
       </c>
-      <c r="G37" s="45">
+      <c r="G37" s="37">
         <v>44043</v>
       </c>
       <c r="H37" s="19">
@@ -2283,7 +1883,7 @@
       <c r="F38" s="16">
         <v>2</v>
       </c>
-      <c r="G38" s="45">
+      <c r="G38" s="37">
         <v>44043</v>
       </c>
       <c r="H38" s="19">
@@ -2318,7 +1918,7 @@
       <c r="F39" s="10">
         <v>1</v>
       </c>
-      <c r="G39" s="45">
+      <c r="G39" s="37">
         <v>44043</v>
       </c>
       <c r="H39" s="13">
@@ -2353,7 +1953,7 @@
       <c r="F40" s="10">
         <v>2</v>
       </c>
-      <c r="G40" s="45">
+      <c r="G40" s="37">
         <v>44043</v>
       </c>
       <c r="H40" s="13">
@@ -2388,7 +1988,7 @@
       <c r="F41" s="10">
         <v>4</v>
       </c>
-      <c r="G41" s="45">
+      <c r="G41" s="37">
         <v>44043</v>
       </c>
       <c r="H41" s="13">
@@ -2423,7 +2023,7 @@
       <c r="F42" s="10">
         <v>5</v>
       </c>
-      <c r="G42" s="45">
+      <c r="G42" s="37">
         <v>44043</v>
       </c>
       <c r="H42" s="13">
@@ -2458,7 +2058,7 @@
       <c r="F43" s="10">
         <v>3</v>
       </c>
-      <c r="G43" s="45">
+      <c r="G43" s="37">
         <v>44043</v>
       </c>
       <c r="H43" s="13">
@@ -2493,7 +2093,7 @@
       <c r="F44" s="16">
         <v>3</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="37">
         <v>44043</v>
       </c>
       <c r="H44" s="19">
@@ -2528,7 +2128,7 @@
       <c r="F45" s="10">
         <v>5</v>
       </c>
-      <c r="G45" s="45">
+      <c r="G45" s="37">
         <v>44043</v>
       </c>
       <c r="H45" s="13">
@@ -2563,7 +2163,7 @@
       <c r="F46" s="16">
         <v>1</v>
       </c>
-      <c r="G46" s="45">
+      <c r="G46" s="37">
         <v>44043</v>
       </c>
       <c r="H46" s="19">
@@ -2598,7 +2198,7 @@
       <c r="F47" s="10">
         <v>4</v>
       </c>
-      <c r="G47" s="45">
+      <c r="G47" s="37">
         <v>44043</v>
       </c>
       <c r="H47" s="13">
@@ -2633,7 +2233,7 @@
       <c r="F48" s="10">
         <v>5</v>
       </c>
-      <c r="G48" s="45">
+      <c r="G48" s="37">
         <v>44043</v>
       </c>
       <c r="H48" s="13">
@@ -2668,7 +2268,7 @@
       <c r="F49" s="10">
         <v>5</v>
       </c>
-      <c r="G49" s="45">
+      <c r="G49" s="37">
         <v>44043</v>
       </c>
       <c r="H49" s="13">
@@ -2703,7 +2303,7 @@
       <c r="F50" s="16">
         <v>4</v>
       </c>
-      <c r="G50" s="45">
+      <c r="G50" s="37">
         <v>44043</v>
       </c>
       <c r="H50" s="19">
@@ -2738,7 +2338,7 @@
       <c r="F51" s="16">
         <v>1</v>
       </c>
-      <c r="G51" s="45">
+      <c r="G51" s="37">
         <v>44043</v>
       </c>
       <c r="H51" s="19">
@@ -2773,7 +2373,7 @@
       <c r="F52" s="16">
         <v>5</v>
       </c>
-      <c r="G52" s="45">
+      <c r="G52" s="37">
         <v>44043</v>
       </c>
       <c r="H52" s="19">
@@ -2808,7 +2408,7 @@
       <c r="F53" s="16">
         <v>2</v>
       </c>
-      <c r="G53" s="45">
+      <c r="G53" s="37">
         <v>44043</v>
       </c>
       <c r="H53" s="19">
@@ -2843,7 +2443,7 @@
       <c r="F54" s="10">
         <v>4</v>
       </c>
-      <c r="G54" s="45">
+      <c r="G54" s="37">
         <v>44043</v>
       </c>
       <c r="H54" s="13">
@@ -2878,7 +2478,7 @@
       <c r="F55" s="10">
         <v>5</v>
       </c>
-      <c r="G55" s="45">
+      <c r="G55" s="37">
         <v>44043</v>
       </c>
       <c r="H55" s="13">
@@ -2913,7 +2513,7 @@
       <c r="F56" s="16">
         <v>4</v>
       </c>
-      <c r="G56" s="45">
+      <c r="G56" s="37">
         <v>44043</v>
       </c>
       <c r="H56" s="19">
@@ -2948,7 +2548,7 @@
       <c r="F57" s="10">
         <v>2</v>
       </c>
-      <c r="G57" s="45">
+      <c r="G57" s="37">
         <v>44043</v>
       </c>
       <c r="H57" s="13">
@@ -2983,7 +2583,7 @@
       <c r="F58" s="10">
         <v>1</v>
       </c>
-      <c r="G58" s="45">
+      <c r="G58" s="37">
         <v>44043</v>
       </c>
       <c r="H58" s="13">
@@ -3018,7 +2618,7 @@
       <c r="F59" s="10">
         <v>1</v>
       </c>
-      <c r="G59" s="45">
+      <c r="G59" s="37">
         <v>44043</v>
       </c>
       <c r="H59" s="13">
@@ -3053,7 +2653,7 @@
       <c r="F60" s="10">
         <v>4</v>
       </c>
-      <c r="G60" s="45">
+      <c r="G60" s="37">
         <v>44043</v>
       </c>
       <c r="H60" s="13">
@@ -3088,7 +2688,7 @@
       <c r="F61" s="10">
         <v>1</v>
       </c>
-      <c r="G61" s="45">
+      <c r="G61" s="37">
         <v>44043</v>
       </c>
       <c r="H61" s="13">
@@ -3123,7 +2723,7 @@
       <c r="F62" s="10">
         <v>4</v>
       </c>
-      <c r="G62" s="45">
+      <c r="G62" s="37">
         <v>44043</v>
       </c>
       <c r="H62" s="13">
@@ -3158,7 +2758,7 @@
       <c r="F63" s="16">
         <v>2</v>
       </c>
-      <c r="G63" s="45">
+      <c r="G63" s="37">
         <v>44043</v>
       </c>
       <c r="H63" s="19">
@@ -3193,7 +2793,7 @@
       <c r="F64" s="16">
         <v>5</v>
       </c>
-      <c r="G64" s="45">
+      <c r="G64" s="37">
         <v>44043</v>
       </c>
       <c r="H64" s="19">
@@ -3228,7 +2828,7 @@
       <c r="F65" s="16">
         <v>2</v>
       </c>
-      <c r="G65" s="45">
+      <c r="G65" s="37">
         <v>44043</v>
       </c>
       <c r="H65" s="19">
@@ -3263,7 +2863,7 @@
       <c r="F66" s="10">
         <v>3</v>
       </c>
-      <c r="G66" s="45">
+      <c r="G66" s="37">
         <v>44043</v>
       </c>
       <c r="H66" s="13">
@@ -3298,7 +2898,7 @@
       <c r="F67" s="10">
         <v>1</v>
       </c>
-      <c r="G67" s="45">
+      <c r="G67" s="37">
         <v>44043</v>
       </c>
       <c r="H67" s="13">
@@ -3333,7 +2933,7 @@
       <c r="F68" s="10">
         <v>4</v>
       </c>
-      <c r="G68" s="45">
+      <c r="G68" s="37">
         <v>44043</v>
       </c>
       <c r="H68" s="13">
@@ -3368,7 +2968,7 @@
       <c r="F69" s="16">
         <v>5</v>
       </c>
-      <c r="G69" s="45">
+      <c r="G69" s="37">
         <v>44043</v>
       </c>
       <c r="H69" s="19">
@@ -3403,7 +3003,7 @@
       <c r="F70" s="16">
         <v>2</v>
       </c>
-      <c r="G70" s="45">
+      <c r="G70" s="37">
         <v>44043</v>
       </c>
       <c r="H70" s="19">
@@ -3438,7 +3038,7 @@
       <c r="F71" s="10">
         <v>3</v>
       </c>
-      <c r="G71" s="45">
+      <c r="G71" s="37">
         <v>44043</v>
       </c>
       <c r="H71" s="13">
@@ -3473,7 +3073,7 @@
       <c r="F72" s="16">
         <v>3</v>
       </c>
-      <c r="G72" s="45">
+      <c r="G72" s="37">
         <v>44043</v>
       </c>
       <c r="H72" s="19">
@@ -3508,7 +3108,7 @@
       <c r="F73" s="10">
         <v>4</v>
       </c>
-      <c r="G73" s="45">
+      <c r="G73" s="37">
         <v>44043</v>
       </c>
       <c r="H73" s="13">
@@ -3543,7 +3143,7 @@
       <c r="F74" s="10">
         <v>5</v>
       </c>
-      <c r="G74" s="45">
+      <c r="G74" s="37">
         <v>44043</v>
       </c>
       <c r="H74" s="13">
@@ -3578,7 +3178,7 @@
       <c r="F75" s="10">
         <v>5</v>
       </c>
-      <c r="G75" s="45">
+      <c r="G75" s="37">
         <v>44043</v>
       </c>
       <c r="H75" s="13">
@@ -3613,7 +3213,7 @@
       <c r="F76" s="10">
         <v>2</v>
       </c>
-      <c r="G76" s="45">
+      <c r="G76" s="37">
         <v>44043</v>
       </c>
       <c r="H76" s="13">
@@ -3648,7 +3248,7 @@
       <c r="F77" s="10">
         <v>1</v>
       </c>
-      <c r="G77" s="45">
+      <c r="G77" s="37">
         <v>44043</v>
       </c>
       <c r="H77" s="13">
@@ -3683,7 +3283,7 @@
       <c r="F78" s="10">
         <v>3</v>
       </c>
-      <c r="G78" s="45">
+      <c r="G78" s="37">
         <v>44043</v>
       </c>
       <c r="H78" s="13">
@@ -3718,7 +3318,7 @@
       <c r="F79" s="10">
         <v>2</v>
       </c>
-      <c r="G79" s="45">
+      <c r="G79" s="37">
         <v>44043</v>
       </c>
       <c r="H79" s="13">
@@ -3753,7 +3353,7 @@
       <c r="F80" s="10">
         <v>2</v>
       </c>
-      <c r="G80" s="45">
+      <c r="G80" s="37">
         <v>44043</v>
       </c>
       <c r="H80" s="13">
@@ -3788,7 +3388,7 @@
       <c r="F81" s="10">
         <v>3</v>
       </c>
-      <c r="G81" s="45">
+      <c r="G81" s="37">
         <v>44043</v>
       </c>
       <c r="H81" s="13">
@@ -3823,7 +3423,7 @@
       <c r="F82" s="10">
         <v>2</v>
       </c>
-      <c r="G82" s="45">
+      <c r="G82" s="37">
         <v>44043</v>
       </c>
       <c r="H82" s="13">
@@ -3858,7 +3458,7 @@
       <c r="F83" s="10">
         <v>3</v>
       </c>
-      <c r="G83" s="45">
+      <c r="G83" s="37">
         <v>44043</v>
       </c>
       <c r="H83" s="13">
@@ -3893,7 +3493,7 @@
       <c r="F84" s="10">
         <v>4</v>
       </c>
-      <c r="G84" s="45">
+      <c r="G84" s="37">
         <v>44043</v>
       </c>
       <c r="H84" s="13">
@@ -3928,7 +3528,7 @@
       <c r="F85" s="10">
         <v>3</v>
       </c>
-      <c r="G85" s="45">
+      <c r="G85" s="37">
         <v>44043</v>
       </c>
       <c r="H85" s="13">
@@ -3963,7 +3563,7 @@
       <c r="F86" s="10">
         <v>2</v>
       </c>
-      <c r="G86" s="45">
+      <c r="G86" s="37">
         <v>44043</v>
       </c>
       <c r="H86" s="13">
@@ -3998,7 +3598,7 @@
       <c r="F87" s="16">
         <v>4</v>
       </c>
-      <c r="G87" s="45">
+      <c r="G87" s="37">
         <v>44043</v>
       </c>
       <c r="H87" s="19">
@@ -4033,7 +3633,7 @@
       <c r="F88" s="10">
         <v>3</v>
       </c>
-      <c r="G88" s="45">
+      <c r="G88" s="37">
         <v>44043</v>
       </c>
       <c r="H88" s="13">
@@ -4068,7 +3668,7 @@
       <c r="F89" s="10">
         <v>1</v>
       </c>
-      <c r="G89" s="45">
+      <c r="G89" s="37">
         <v>44043</v>
       </c>
       <c r="H89" s="13">
@@ -4103,7 +3703,7 @@
       <c r="F90" s="10">
         <v>4</v>
       </c>
-      <c r="G90" s="45">
+      <c r="G90" s="37">
         <v>44043</v>
       </c>
       <c r="H90" s="13">
@@ -4138,7 +3738,7 @@
       <c r="F91" s="10">
         <v>3</v>
       </c>
-      <c r="G91" s="45">
+      <c r="G91" s="37">
         <v>44043</v>
       </c>
       <c r="H91" s="13">
@@ -4173,7 +3773,7 @@
       <c r="F92" s="10">
         <v>2</v>
       </c>
-      <c r="G92" s="45">
+      <c r="G92" s="37">
         <v>44043</v>
       </c>
       <c r="H92" s="13">
@@ -4208,7 +3808,7 @@
       <c r="F93" s="10">
         <v>4</v>
       </c>
-      <c r="G93" s="45">
+      <c r="G93" s="37">
         <v>44043</v>
       </c>
       <c r="H93" s="13">
@@ -4243,7 +3843,7 @@
       <c r="F94" s="16">
         <v>1</v>
       </c>
-      <c r="G94" s="45">
+      <c r="G94" s="37">
         <v>44043</v>
       </c>
       <c r="H94" s="19">
@@ -4278,7 +3878,7 @@
       <c r="F95" s="16">
         <v>4</v>
       </c>
-      <c r="G95" s="45">
+      <c r="G95" s="37">
         <v>44043</v>
       </c>
       <c r="H95" s="19">
@@ -4313,7 +3913,7 @@
       <c r="F96" s="16">
         <v>1</v>
       </c>
-      <c r="G96" s="45">
+      <c r="G96" s="37">
         <v>44043</v>
       </c>
       <c r="H96" s="19">
@@ -4348,7 +3948,7 @@
       <c r="F97" s="16">
         <v>2</v>
       </c>
-      <c r="G97" s="45">
+      <c r="G97" s="37">
         <v>44043</v>
       </c>
       <c r="H97" s="19">
@@ -4383,7 +3983,7 @@
       <c r="F98" s="10">
         <v>5</v>
       </c>
-      <c r="G98" s="45">
+      <c r="G98" s="37">
         <v>44043</v>
       </c>
       <c r="H98" s="13">
@@ -4418,7 +4018,7 @@
       <c r="F99" s="10">
         <v>2</v>
       </c>
-      <c r="G99" s="45">
+      <c r="G99" s="37">
         <v>44043</v>
       </c>
       <c r="H99" s="13">
@@ -4453,7 +4053,7 @@
       <c r="F100" s="10">
         <v>5</v>
       </c>
-      <c r="G100" s="45">
+      <c r="G100" s="37">
         <v>44043</v>
       </c>
       <c r="H100" s="13">
@@ -4488,7 +4088,7 @@
       <c r="F101" s="10">
         <v>1</v>
       </c>
-      <c r="G101" s="45">
+      <c r="G101" s="37">
         <v>44043</v>
       </c>
       <c r="H101" s="13">
@@ -4523,7 +4123,7 @@
       <c r="F102" s="16">
         <v>5</v>
       </c>
-      <c r="G102" s="45">
+      <c r="G102" s="37">
         <v>44043</v>
       </c>
       <c r="H102" s="19">
@@ -4558,7 +4158,7 @@
       <c r="F103" s="10">
         <v>3</v>
       </c>
-      <c r="G103" s="45">
+      <c r="G103" s="37">
         <v>44043</v>
       </c>
       <c r="H103" s="13">
@@ -4593,7 +4193,7 @@
       <c r="F104" s="16">
         <v>4</v>
       </c>
-      <c r="G104" s="45">
+      <c r="G104" s="37">
         <v>44043</v>
       </c>
       <c r="H104" s="19">
@@ -4628,7 +4228,7 @@
       <c r="F105" s="16">
         <v>4</v>
       </c>
-      <c r="G105" s="45">
+      <c r="G105" s="37">
         <v>44043</v>
       </c>
       <c r="H105" s="19">
@@ -4663,7 +4263,7 @@
       <c r="F106" s="10">
         <v>2</v>
       </c>
-      <c r="G106" s="45">
+      <c r="G106" s="37">
         <v>44043</v>
       </c>
       <c r="H106" s="13">
@@ -4698,7 +4298,7 @@
       <c r="F107" s="10">
         <v>5</v>
       </c>
-      <c r="G107" s="45">
+      <c r="G107" s="37">
         <v>44043</v>
       </c>
       <c r="H107" s="13">
@@ -4733,7 +4333,7 @@
       <c r="F108" s="10">
         <v>2</v>
       </c>
-      <c r="G108" s="45">
+      <c r="G108" s="37">
         <v>44043</v>
       </c>
       <c r="H108" s="13">
@@ -4768,7 +4368,7 @@
       <c r="F109" s="10">
         <v>2</v>
       </c>
-      <c r="G109" s="45">
+      <c r="G109" s="37">
         <v>44043</v>
       </c>
       <c r="H109" s="13">
@@ -4803,7 +4403,7 @@
       <c r="F110" s="16">
         <v>5</v>
       </c>
-      <c r="G110" s="45">
+      <c r="G110" s="37">
         <v>44043</v>
       </c>
       <c r="H110" s="19">
@@ -4838,7 +4438,7 @@
       <c r="F111" s="16">
         <v>1</v>
       </c>
-      <c r="G111" s="45">
+      <c r="G111" s="37">
         <v>44043</v>
       </c>
       <c r="H111" s="19">
@@ -4874,7 +4474,7 @@
       <c r="F112" s="16">
         <v>4</v>
       </c>
-      <c r="G112" s="45">
+      <c r="G112" s="37">
         <v>44043</v>
       </c>
       <c r="H112" s="19">
@@ -4909,7 +4509,7 @@
       <c r="F113" s="10">
         <v>2</v>
       </c>
-      <c r="G113" s="45">
+      <c r="G113" s="37">
         <v>44043</v>
       </c>
       <c r="H113" s="13">
@@ -4944,7 +4544,7 @@
       <c r="F114" s="16">
         <v>1</v>
       </c>
-      <c r="G114" s="45">
+      <c r="G114" s="37">
         <v>44043</v>
       </c>
       <c r="H114" s="19">
@@ -4979,7 +4579,7 @@
       <c r="F115" s="10">
         <v>1</v>
       </c>
-      <c r="G115" s="45">
+      <c r="G115" s="37">
         <v>44043</v>
       </c>
       <c r="H115" s="13">
@@ -5014,7 +4614,7 @@
       <c r="F116" s="10">
         <v>4</v>
       </c>
-      <c r="G116" s="45">
+      <c r="G116" s="37">
         <v>44043</v>
       </c>
       <c r="H116" s="13">
@@ -5049,7 +4649,7 @@
       <c r="F117" s="16">
         <v>5</v>
       </c>
-      <c r="G117" s="45">
+      <c r="G117" s="37">
         <v>44043</v>
       </c>
       <c r="H117" s="19">
@@ -5084,7 +4684,7 @@
       <c r="F118" s="16">
         <v>4</v>
       </c>
-      <c r="G118" s="45">
+      <c r="G118" s="37">
         <v>44043</v>
       </c>
       <c r="H118" s="19">
@@ -5119,7 +4719,7 @@
       <c r="F119" s="10">
         <v>1</v>
       </c>
-      <c r="G119" s="45">
+      <c r="G119" s="37">
         <v>44043</v>
       </c>
       <c r="H119" s="13">
@@ -5154,7 +4754,7 @@
       <c r="F120" s="16">
         <v>2</v>
       </c>
-      <c r="G120" s="45">
+      <c r="G120" s="37">
         <v>44043</v>
       </c>
       <c r="H120" s="19">
@@ -5189,7 +4789,7 @@
       <c r="F121" s="16">
         <v>2</v>
       </c>
-      <c r="G121" s="45">
+      <c r="G121" s="37">
         <v>44043</v>
       </c>
       <c r="H121" s="19">
@@ -5224,7 +4824,7 @@
       <c r="F122" s="16">
         <v>4</v>
       </c>
-      <c r="G122" s="45">
+      <c r="G122" s="37">
         <v>44043</v>
       </c>
       <c r="H122" s="19">
@@ -5259,7 +4859,7 @@
       <c r="F123" s="10">
         <v>3</v>
       </c>
-      <c r="G123" s="45">
+      <c r="G123" s="37">
         <v>44043</v>
       </c>
       <c r="H123" s="13">
@@ -5294,7 +4894,7 @@
       <c r="F124" s="16">
         <v>4</v>
       </c>
-      <c r="G124" s="45">
+      <c r="G124" s="37">
         <v>44043</v>
       </c>
       <c r="H124" s="19">
@@ -5329,7 +4929,7 @@
       <c r="F125" s="10">
         <v>5</v>
       </c>
-      <c r="G125" s="45">
+      <c r="G125" s="37">
         <v>44043</v>
       </c>
       <c r="H125" s="13">
@@ -5364,7 +4964,7 @@
       <c r="F126" s="10">
         <v>5</v>
       </c>
-      <c r="G126" s="45">
+      <c r="G126" s="37">
         <v>44043</v>
       </c>
       <c r="H126" s="13">
@@ -5399,7 +4999,7 @@
       <c r="F127" s="10">
         <v>3</v>
       </c>
-      <c r="G127" s="45">
+      <c r="G127" s="37">
         <v>44043</v>
       </c>
       <c r="H127" s="13">
@@ -5434,7 +5034,7 @@
       <c r="F128" s="10">
         <v>5</v>
       </c>
-      <c r="G128" s="45">
+      <c r="G128" s="37">
         <v>44043</v>
       </c>
       <c r="H128" s="13">
@@ -5469,7 +5069,7 @@
       <c r="F129" s="10">
         <v>3</v>
       </c>
-      <c r="G129" s="45">
+      <c r="G129" s="37">
         <v>44043</v>
       </c>
       <c r="H129" s="13">
@@ -5504,7 +5104,7 @@
       <c r="F130" s="10">
         <v>1</v>
       </c>
-      <c r="G130" s="45">
+      <c r="G130" s="37">
         <v>44043</v>
       </c>
       <c r="H130" s="13">
@@ -5539,7 +5139,7 @@
       <c r="F131" s="10">
         <v>3</v>
       </c>
-      <c r="G131" s="45">
+      <c r="G131" s="37">
         <v>44043</v>
       </c>
       <c r="H131" s="13">
@@ -5574,7 +5174,7 @@
       <c r="F132" s="10">
         <v>3</v>
       </c>
-      <c r="G132" s="45">
+      <c r="G132" s="37">
         <v>44043</v>
       </c>
       <c r="H132" s="13">
@@ -5609,7 +5209,7 @@
       <c r="F133" s="16">
         <v>3</v>
       </c>
-      <c r="G133" s="45">
+      <c r="G133" s="37">
         <v>44043</v>
       </c>
       <c r="H133" s="19">
@@ -5645,7 +5245,7 @@
       <c r="F134" s="16">
         <v>3</v>
       </c>
-      <c r="G134" s="45">
+      <c r="G134" s="37">
         <v>44043</v>
       </c>
       <c r="H134" s="19">
@@ -5680,7 +5280,7 @@
       <c r="F135" s="16">
         <v>2</v>
       </c>
-      <c r="G135" s="45">
+      <c r="G135" s="37">
         <v>44043</v>
       </c>
       <c r="H135" s="19">
@@ -5715,7 +5315,7 @@
       <c r="F136" s="16">
         <v>2</v>
       </c>
-      <c r="G136" s="45">
+      <c r="G136" s="37">
         <v>44043</v>
       </c>
       <c r="H136" s="19">
@@ -5750,7 +5350,7 @@
       <c r="F137" s="10">
         <v>5</v>
       </c>
-      <c r="G137" s="45">
+      <c r="G137" s="37">
         <v>44043</v>
       </c>
       <c r="H137" s="13">
@@ -5785,7 +5385,7 @@
       <c r="F138" s="16">
         <v>5</v>
       </c>
-      <c r="G138" s="45">
+      <c r="G138" s="37">
         <v>44043</v>
       </c>
       <c r="H138" s="19">
@@ -5820,7 +5420,7 @@
       <c r="F139" s="10">
         <v>1</v>
       </c>
-      <c r="G139" s="45">
+      <c r="G139" s="37">
         <v>44043</v>
       </c>
       <c r="H139" s="13">
@@ -5855,7 +5455,7 @@
       <c r="F140" s="16">
         <v>1</v>
       </c>
-      <c r="G140" s="45">
+      <c r="G140" s="37">
         <v>44043</v>
       </c>
       <c r="H140" s="19">
@@ -5891,7 +5491,7 @@
       <c r="F141" s="10">
         <v>1</v>
       </c>
-      <c r="G141" s="45">
+      <c r="G141" s="37">
         <v>44043</v>
       </c>
       <c r="H141" s="13">
@@ -5926,7 +5526,7 @@
       <c r="F142" s="10">
         <v>1</v>
       </c>
-      <c r="G142" s="45">
+      <c r="G142" s="37">
         <v>44043</v>
       </c>
       <c r="H142" s="13">
@@ -5961,7 +5561,7 @@
       <c r="F143" s="10">
         <v>5</v>
       </c>
-      <c r="G143" s="45">
+      <c r="G143" s="37">
         <v>44043</v>
       </c>
       <c r="H143" s="13">
@@ -5996,7 +5596,7 @@
       <c r="F144" s="10">
         <v>1</v>
       </c>
-      <c r="G144" s="45">
+      <c r="G144" s="37">
         <v>44043</v>
       </c>
       <c r="H144" s="13">
@@ -6031,7 +5631,7 @@
       <c r="F145" s="10">
         <v>3</v>
       </c>
-      <c r="G145" s="45">
+      <c r="G145" s="37">
         <v>44043</v>
       </c>
       <c r="H145" s="13">
@@ -6066,7 +5666,7 @@
       <c r="F146" s="10">
         <v>1</v>
       </c>
-      <c r="G146" s="45">
+      <c r="G146" s="37">
         <v>44043</v>
       </c>
       <c r="H146" s="13">
@@ -6101,7 +5701,7 @@
       <c r="F147" s="10">
         <v>2</v>
       </c>
-      <c r="G147" s="45">
+      <c r="G147" s="37">
         <v>44043</v>
       </c>
       <c r="H147" s="13">
@@ -6136,7 +5736,7 @@
       <c r="F148" s="10">
         <v>3</v>
       </c>
-      <c r="G148" s="45">
+      <c r="G148" s="37">
         <v>44043</v>
       </c>
       <c r="H148" s="13">
@@ -6171,7 +5771,7 @@
       <c r="F149" s="10">
         <v>1</v>
       </c>
-      <c r="G149" s="45">
+      <c r="G149" s="37">
         <v>44043</v>
       </c>
       <c r="H149" s="13">
@@ -6206,7 +5806,7 @@
       <c r="F150" s="10">
         <v>1</v>
       </c>
-      <c r="G150" s="45">
+      <c r="G150" s="37">
         <v>44043</v>
       </c>
       <c r="H150" s="13">
@@ -6241,7 +5841,7 @@
       <c r="F151" s="10">
         <v>5</v>
       </c>
-      <c r="G151" s="45">
+      <c r="G151" s="37">
         <v>44043</v>
       </c>
       <c r="H151" s="13">
@@ -6276,7 +5876,7 @@
       <c r="F152" s="16">
         <v>4</v>
       </c>
-      <c r="G152" s="45">
+      <c r="G152" s="37">
         <v>44043</v>
       </c>
       <c r="H152" s="19">
@@ -6311,7 +5911,7 @@
       <c r="F153" s="16">
         <v>4</v>
       </c>
-      <c r="G153" s="45">
+      <c r="G153" s="37">
         <v>44043</v>
       </c>
       <c r="H153" s="19">
@@ -6346,7 +5946,7 @@
       <c r="F154" s="16">
         <v>1</v>
       </c>
-      <c r="G154" s="45">
+      <c r="G154" s="37">
         <v>44043</v>
       </c>
       <c r="H154" s="19">
@@ -6381,7 +5981,7 @@
       <c r="F155" s="16">
         <v>1</v>
       </c>
-      <c r="G155" s="45">
+      <c r="G155" s="37">
         <v>44043</v>
       </c>
       <c r="H155" s="19">
@@ -6416,7 +6016,7 @@
       <c r="F156" s="16">
         <v>2</v>
       </c>
-      <c r="G156" s="45">
+      <c r="G156" s="37">
         <v>44043</v>
       </c>
       <c r="H156" s="19">
@@ -6451,7 +6051,7 @@
       <c r="F157" s="16">
         <v>4</v>
       </c>
-      <c r="G157" s="45">
+      <c r="G157" s="37">
         <v>44043</v>
       </c>
       <c r="H157" s="19">
@@ -6486,7 +6086,7 @@
       <c r="F158" s="16">
         <v>1</v>
       </c>
-      <c r="G158" s="45">
+      <c r="G158" s="37">
         <v>44043</v>
       </c>
       <c r="H158" s="19">
@@ -6521,7 +6121,7 @@
       <c r="F159" s="16">
         <v>1</v>
       </c>
-      <c r="G159" s="45">
+      <c r="G159" s="37">
         <v>44043</v>
       </c>
       <c r="H159" s="19">
@@ -6557,7 +6157,7 @@
       <c r="F160" s="22">
         <v>5</v>
       </c>
-      <c r="G160" s="45">
+      <c r="G160" s="37">
         <v>44043</v>
       </c>
       <c r="H160" s="19">
@@ -6592,7 +6192,7 @@
       <c r="F161" s="7">
         <v>4</v>
       </c>
-      <c r="G161" s="45">
+      <c r="G161" s="37">
         <v>44043</v>
       </c>
       <c r="H161" s="13">
@@ -6627,7 +6227,7 @@
       <c r="F162" s="22">
         <v>5</v>
       </c>
-      <c r="G162" s="45">
+      <c r="G162" s="37">
         <v>44043</v>
       </c>
       <c r="H162" s="19">
@@ -6662,7 +6262,7 @@
       <c r="F163" s="22">
         <v>4</v>
       </c>
-      <c r="G163" s="45">
+      <c r="G163" s="37">
         <v>44043</v>
       </c>
       <c r="H163" s="19">
@@ -6697,7 +6297,7 @@
       <c r="F164" s="22">
         <v>5</v>
       </c>
-      <c r="G164" s="45">
+      <c r="G164" s="37">
         <v>44043</v>
       </c>
       <c r="H164" s="19">
@@ -6732,7 +6332,7 @@
       <c r="F165" s="22">
         <v>3</v>
       </c>
-      <c r="G165" s="45">
+      <c r="G165" s="37">
         <v>44043</v>
       </c>
       <c r="H165" s="19">
@@ -6767,7 +6367,7 @@
       <c r="F166" s="22">
         <v>2</v>
       </c>
-      <c r="G166" s="45">
+      <c r="G166" s="37">
         <v>44043</v>
       </c>
       <c r="H166" s="19">
@@ -6803,7 +6403,7 @@
       <c r="F167" s="7">
         <v>3</v>
       </c>
-      <c r="G167" s="45">
+      <c r="G167" s="37">
         <v>44043</v>
       </c>
       <c r="H167" s="13">
@@ -6838,7 +6438,7 @@
       <c r="F168" s="22">
         <v>2</v>
       </c>
-      <c r="G168" s="45">
+      <c r="G168" s="37">
         <v>44043</v>
       </c>
       <c r="H168" s="19">
@@ -6873,7 +6473,7 @@
       <c r="F169" s="22">
         <v>4</v>
       </c>
-      <c r="G169" s="45">
+      <c r="G169" s="37">
         <v>44043</v>
       </c>
       <c r="H169" s="19">
@@ -6908,7 +6508,7 @@
       <c r="F170" s="7">
         <v>1</v>
       </c>
-      <c r="G170" s="45">
+      <c r="G170" s="37">
         <v>44043</v>
       </c>
       <c r="H170" s="13">
@@ -6943,7 +6543,7 @@
       <c r="F171" s="7">
         <v>3</v>
       </c>
-      <c r="G171" s="45">
+      <c r="G171" s="37">
         <v>44043</v>
       </c>
       <c r="H171" s="13">
@@ -6978,7 +6578,7 @@
       <c r="F172" s="7">
         <v>2</v>
       </c>
-      <c r="G172" s="45">
+      <c r="G172" s="37">
         <v>44043</v>
       </c>
       <c r="H172" s="13">
@@ -7013,7 +6613,7 @@
       <c r="F173" s="22">
         <v>3</v>
       </c>
-      <c r="G173" s="45">
+      <c r="G173" s="37">
         <v>44043</v>
       </c>
       <c r="H173" s="19">
@@ -7048,7 +6648,7 @@
       <c r="F174" s="7">
         <v>2</v>
       </c>
-      <c r="G174" s="45">
+      <c r="G174" s="37">
         <v>44043</v>
       </c>
       <c r="H174" s="13">
@@ -7083,7 +6683,7 @@
       <c r="F175" s="7">
         <v>5</v>
       </c>
-      <c r="G175" s="45">
+      <c r="G175" s="37">
         <v>44043</v>
       </c>
       <c r="H175" s="13">
@@ -7118,7 +6718,7 @@
       <c r="F176" s="7">
         <v>3</v>
       </c>
-      <c r="G176" s="45">
+      <c r="G176" s="37">
         <v>44043</v>
       </c>
       <c r="H176" s="13">
@@ -7153,7 +6753,7 @@
       <c r="F177" s="22">
         <v>3</v>
       </c>
-      <c r="G177" s="45">
+      <c r="G177" s="37">
         <v>44043</v>
       </c>
       <c r="H177" s="19">
@@ -7188,7 +6788,7 @@
       <c r="F178" s="22">
         <v>1</v>
       </c>
-      <c r="G178" s="45">
+      <c r="G178" s="37">
         <v>44043</v>
       </c>
       <c r="H178" s="19">
@@ -7224,7 +6824,7 @@
       <c r="F179" s="22">
         <v>4</v>
       </c>
-      <c r="G179" s="45">
+      <c r="G179" s="37">
         <v>44043</v>
       </c>
       <c r="H179" s="19">
@@ -7260,7 +6860,7 @@
       <c r="F180" s="22">
         <v>2</v>
       </c>
-      <c r="G180" s="45">
+      <c r="G180" s="37">
         <v>44043</v>
       </c>
       <c r="H180" s="19">
@@ -7296,7 +6896,7 @@
       <c r="F181" s="22">
         <v>5</v>
       </c>
-      <c r="G181" s="45">
+      <c r="G181" s="37">
         <v>44043</v>
       </c>
       <c r="H181" s="19">
@@ -7331,7 +6931,7 @@
       <c r="F182" s="7">
         <v>5</v>
       </c>
-      <c r="G182" s="45">
+      <c r="G182" s="37">
         <v>44043</v>
       </c>
       <c r="H182" s="13">
@@ -7366,7 +6966,7 @@
       <c r="F183" s="7">
         <v>4</v>
       </c>
-      <c r="G183" s="45">
+      <c r="G183" s="37">
         <v>44043</v>
       </c>
       <c r="H183" s="13">
@@ -7401,7 +7001,7 @@
       <c r="F184" s="7">
         <v>2</v>
       </c>
-      <c r="G184" s="45">
+      <c r="G184" s="37">
         <v>44043</v>
       </c>
       <c r="H184" s="13">
@@ -7436,7 +7036,7 @@
       <c r="F185" s="7">
         <v>1</v>
       </c>
-      <c r="G185" s="45">
+      <c r="G185" s="37">
         <v>44043</v>
       </c>
       <c r="H185" s="13">
@@ -7471,7 +7071,7 @@
       <c r="F186" s="22">
         <v>1</v>
       </c>
-      <c r="G186" s="45">
+      <c r="G186" s="37">
         <v>44043</v>
       </c>
       <c r="H186" s="19">
@@ -7506,7 +7106,7 @@
       <c r="F187" s="22">
         <v>3</v>
       </c>
-      <c r="G187" s="45">
+      <c r="G187" s="37">
         <v>44043</v>
       </c>
       <c r="H187" s="19">
@@ -7541,7 +7141,7 @@
       <c r="F188" s="7">
         <v>5</v>
       </c>
-      <c r="G188" s="45">
+      <c r="G188" s="37">
         <v>44043</v>
       </c>
       <c r="H188" s="13">
@@ -7576,7 +7176,7 @@
       <c r="F189" s="7">
         <v>3</v>
       </c>
-      <c r="G189" s="45">
+      <c r="G189" s="37">
         <v>44043</v>
       </c>
       <c r="H189" s="13">
@@ -7611,7 +7211,7 @@
       <c r="F190" s="22">
         <v>3</v>
       </c>
-      <c r="G190" s="45">
+      <c r="G190" s="37">
         <v>44043</v>
       </c>
       <c r="H190" s="19">
@@ -7646,7 +7246,7 @@
       <c r="F191" s="22">
         <v>5</v>
       </c>
-      <c r="G191" s="45">
+      <c r="G191" s="37">
         <v>44043</v>
       </c>
       <c r="H191" s="19">
@@ -7681,7 +7281,7 @@
       <c r="F192" s="22">
         <v>2</v>
       </c>
-      <c r="G192" s="45">
+      <c r="G192" s="37">
         <v>44043</v>
       </c>
       <c r="H192" s="19">
@@ -7716,7 +7316,7 @@
       <c r="F193" s="7">
         <v>2</v>
       </c>
-      <c r="G193" s="45">
+      <c r="G193" s="37">
         <v>44043</v>
       </c>
       <c r="H193" s="13">
@@ -7751,7 +7351,7 @@
       <c r="F194" s="7">
         <v>3</v>
       </c>
-      <c r="G194" s="45">
+      <c r="G194" s="37">
         <v>44043</v>
       </c>
       <c r="H194" s="13">
@@ -7786,7 +7386,7 @@
       <c r="F195" s="22">
         <v>3</v>
       </c>
-      <c r="G195" s="45">
+      <c r="G195" s="37">
         <v>44043</v>
       </c>
       <c r="H195" s="19">
@@ -7821,7 +7421,7 @@
       <c r="F196" s="22">
         <v>4</v>
       </c>
-      <c r="G196" s="45">
+      <c r="G196" s="37">
         <v>44043</v>
       </c>
       <c r="H196" s="19">
@@ -7856,7 +7456,7 @@
       <c r="F197" s="7">
         <v>5</v>
       </c>
-      <c r="G197" s="45">
+      <c r="G197" s="37">
         <v>44043</v>
       </c>
       <c r="H197" s="13">
@@ -7891,7 +7491,7 @@
       <c r="F198" s="22">
         <v>1</v>
       </c>
-      <c r="G198" s="45">
+      <c r="G198" s="37">
         <v>44043</v>
       </c>
       <c r="H198" s="19">
@@ -7926,7 +7526,7 @@
       <c r="F199" s="7">
         <v>3</v>
       </c>
-      <c r="G199" s="45">
+      <c r="G199" s="37">
         <v>44043</v>
       </c>
       <c r="H199" s="13">
@@ -7961,7 +7561,7 @@
       <c r="F200" s="7">
         <v>5</v>
       </c>
-      <c r="G200" s="45">
+      <c r="G200" s="37">
         <v>44043</v>
       </c>
       <c r="H200" s="13">
@@ -7996,7 +7596,7 @@
       <c r="F201" s="7">
         <v>5</v>
       </c>
-      <c r="G201" s="45">
+      <c r="G201" s="37">
         <v>44043</v>
       </c>
       <c r="H201" s="13">
@@ -8031,7 +7631,7 @@
       <c r="F202" s="22">
         <v>3</v>
       </c>
-      <c r="G202" s="45">
+      <c r="G202" s="37">
         <v>44043</v>
       </c>
       <c r="H202" s="19">
@@ -8066,7 +7666,7 @@
       <c r="F203" s="7">
         <v>3</v>
       </c>
-      <c r="G203" s="45">
+      <c r="G203" s="37">
         <v>44043</v>
       </c>
       <c r="H203" s="13">
@@ -8101,7 +7701,7 @@
       <c r="F204" s="7">
         <v>5</v>
       </c>
-      <c r="G204" s="45">
+      <c r="G204" s="37">
         <v>44043</v>
       </c>
       <c r="H204" s="13">
@@ -8136,7 +7736,7 @@
       <c r="F205" s="22">
         <v>5</v>
       </c>
-      <c r="G205" s="45">
+      <c r="G205" s="37">
         <v>44043</v>
       </c>
       <c r="H205" s="19">
@@ -8171,7 +7771,7 @@
       <c r="F206" s="22">
         <v>5</v>
       </c>
-      <c r="G206" s="45">
+      <c r="G206" s="37">
         <v>44043</v>
       </c>
       <c r="H206" s="19">
@@ -8206,7 +7806,7 @@
       <c r="F207" s="7">
         <v>4</v>
       </c>
-      <c r="G207" s="45">
+      <c r="G207" s="37">
         <v>44043</v>
       </c>
       <c r="H207" s="13">
@@ -8241,7 +7841,7 @@
       <c r="F208" s="7">
         <v>3</v>
       </c>
-      <c r="G208" s="45">
+      <c r="G208" s="37">
         <v>44043</v>
       </c>
       <c r="H208" s="13">
@@ -8276,7 +7876,7 @@
       <c r="F209" s="7">
         <v>1</v>
       </c>
-      <c r="G209" s="45">
+      <c r="G209" s="37">
         <v>44043</v>
       </c>
       <c r="H209" s="13">
@@ -8311,7 +7911,7 @@
       <c r="F210" s="7">
         <v>2</v>
       </c>
-      <c r="G210" s="45">
+      <c r="G210" s="37">
         <v>44043</v>
       </c>
       <c r="H210" s="13">
@@ -8346,7 +7946,7 @@
       <c r="F211" s="7">
         <v>1</v>
       </c>
-      <c r="G211" s="45">
+      <c r="G211" s="37">
         <v>44043</v>
       </c>
       <c r="H211" s="13">
@@ -8381,7 +7981,7 @@
       <c r="F212" s="7">
         <v>2</v>
       </c>
-      <c r="G212" s="45">
+      <c r="G212" s="37">
         <v>44043</v>
       </c>
       <c r="H212" s="13">
@@ -8416,7 +8016,7 @@
       <c r="F213" s="7">
         <v>3</v>
       </c>
-      <c r="G213" s="45">
+      <c r="G213" s="37">
         <v>44043</v>
       </c>
       <c r="H213" s="13">
@@ -8451,7 +8051,7 @@
       <c r="F214" s="22">
         <v>3</v>
       </c>
-      <c r="G214" s="45">
+      <c r="G214" s="37">
         <v>44043</v>
       </c>
       <c r="H214" s="19">
@@ -8486,7 +8086,7 @@
       <c r="F215" s="22">
         <v>4</v>
       </c>
-      <c r="G215" s="45">
+      <c r="G215" s="37">
         <v>44043</v>
       </c>
       <c r="H215" s="19">
@@ -8521,7 +8121,7 @@
       <c r="F216" s="22">
         <v>2</v>
       </c>
-      <c r="G216" s="45">
+      <c r="G216" s="37">
         <v>44043</v>
       </c>
       <c r="H216" s="19">
@@ -8557,7 +8157,7 @@
       <c r="F217" s="7">
         <v>3</v>
       </c>
-      <c r="G217" s="45">
+      <c r="G217" s="37">
         <v>44043</v>
       </c>
       <c r="H217" s="13">
@@ -8593,7 +8193,7 @@
       <c r="F218" s="22">
         <v>1</v>
       </c>
-      <c r="G218" s="45">
+      <c r="G218" s="37">
         <v>44043</v>
       </c>
       <c r="H218" s="19">
@@ -8628,7 +8228,7 @@
       <c r="F219" s="7">
         <v>1</v>
       </c>
-      <c r="G219" s="45">
+      <c r="G219" s="37">
         <v>44043</v>
       </c>
       <c r="H219" s="13">
@@ -8663,7 +8263,7 @@
       <c r="F220" s="22">
         <v>1</v>
       </c>
-      <c r="G220" s="45">
+      <c r="G220" s="37">
         <v>44043</v>
       </c>
       <c r="H220" s="19">
@@ -8698,7 +8298,7 @@
       <c r="F221" s="7">
         <v>5</v>
       </c>
-      <c r="G221" s="45">
+      <c r="G221" s="37">
         <v>44043</v>
       </c>
       <c r="H221" s="13">
@@ -8733,7 +8333,7 @@
       <c r="F222" s="7">
         <v>3</v>
       </c>
-      <c r="G222" s="45">
+      <c r="G222" s="37">
         <v>44043</v>
       </c>
       <c r="H222" s="13">
@@ -8768,7 +8368,7 @@
       <c r="F223" s="7">
         <v>3</v>
       </c>
-      <c r="G223" s="45">
+      <c r="G223" s="37">
         <v>44043</v>
       </c>
       <c r="H223" s="13">
@@ -8803,7 +8403,7 @@
       <c r="F224" s="7">
         <v>1</v>
       </c>
-      <c r="G224" s="45">
+      <c r="G224" s="37">
         <v>44043</v>
       </c>
       <c r="H224" s="13">
@@ -8838,7 +8438,7 @@
       <c r="F225" s="22">
         <v>4</v>
       </c>
-      <c r="G225" s="45">
+      <c r="G225" s="37">
         <v>44043</v>
       </c>
       <c r="H225" s="19">
@@ -8873,7 +8473,7 @@
       <c r="F226" s="7">
         <v>5</v>
       </c>
-      <c r="G226" s="45">
+      <c r="G226" s="37">
         <v>44043</v>
       </c>
       <c r="H226" s="13">
@@ -8908,7 +8508,7 @@
       <c r="F227" s="22">
         <v>3</v>
       </c>
-      <c r="G227" s="45">
+      <c r="G227" s="37">
         <v>44043</v>
       </c>
       <c r="H227" s="19">
@@ -8943,7 +8543,7 @@
       <c r="F228" s="22">
         <v>4</v>
       </c>
-      <c r="G228" s="45">
+      <c r="G228" s="37">
         <v>44043</v>
       </c>
       <c r="H228" s="19">
@@ -8979,7 +8579,7 @@
       <c r="F229" s="7">
         <v>4</v>
       </c>
-      <c r="G229" s="45">
+      <c r="G229" s="37">
         <v>44043</v>
       </c>
       <c r="H229" s="13">
@@ -9014,7 +8614,7 @@
       <c r="F230" s="7">
         <v>2</v>
       </c>
-      <c r="G230" s="45">
+      <c r="G230" s="37">
         <v>44043</v>
       </c>
       <c r="H230" s="13">
@@ -9049,7 +8649,7 @@
       <c r="F231" s="7">
         <v>4</v>
       </c>
-      <c r="G231" s="45">
+      <c r="G231" s="37">
         <v>44043</v>
       </c>
       <c r="H231" s="13">
@@ -9084,7 +8684,7 @@
       <c r="F232" s="7">
         <v>4</v>
       </c>
-      <c r="G232" s="45">
+      <c r="G232" s="37">
         <v>44043</v>
       </c>
       <c r="H232" s="13">
@@ -9119,7 +8719,7 @@
       <c r="F233" s="7">
         <v>5</v>
       </c>
-      <c r="G233" s="45">
+      <c r="G233" s="37">
         <v>44043</v>
       </c>
       <c r="H233" s="13">
@@ -9154,7 +8754,7 @@
       <c r="F234" s="7">
         <v>3</v>
       </c>
-      <c r="G234" s="45">
+      <c r="G234" s="37">
         <v>44043</v>
       </c>
       <c r="H234" s="13">
@@ -9189,7 +8789,7 @@
       <c r="F235" s="22">
         <v>3</v>
       </c>
-      <c r="G235" s="45">
+      <c r="G235" s="37">
         <v>44043</v>
       </c>
       <c r="H235" s="19">
@@ -9224,7 +8824,7 @@
       <c r="F236" s="22">
         <v>4</v>
       </c>
-      <c r="G236" s="45">
+      <c r="G236" s="37">
         <v>44043</v>
       </c>
       <c r="H236" s="19">
@@ -9259,7 +8859,7 @@
       <c r="F237" s="22">
         <v>4</v>
       </c>
-      <c r="G237" s="45">
+      <c r="G237" s="37">
         <v>44043</v>
       </c>
       <c r="H237" s="19">
@@ -9294,7 +8894,7 @@
       <c r="F238" s="7">
         <v>3</v>
       </c>
-      <c r="G238" s="45">
+      <c r="G238" s="37">
         <v>44043</v>
       </c>
       <c r="H238" s="13">
@@ -9329,7 +8929,7 @@
       <c r="F239" s="22">
         <v>3</v>
       </c>
-      <c r="G239" s="45">
+      <c r="G239" s="37">
         <v>44043</v>
       </c>
       <c r="H239" s="19">
@@ -9364,7 +8964,7 @@
       <c r="F240" s="22">
         <v>4</v>
       </c>
-      <c r="G240" s="45">
+      <c r="G240" s="37">
         <v>44043</v>
       </c>
       <c r="H240" s="19">
@@ -9400,7 +9000,7 @@
       <c r="F241" s="7">
         <v>5</v>
       </c>
-      <c r="G241" s="45">
+      <c r="G241" s="37">
         <v>44043</v>
       </c>
       <c r="H241" s="13">
@@ -9435,7 +9035,7 @@
       <c r="F242" s="22">
         <v>5</v>
       </c>
-      <c r="G242" s="45">
+      <c r="G242" s="37">
         <v>44043</v>
       </c>
       <c r="H242" s="19">
@@ -9470,7 +9070,7 @@
       <c r="F243" s="7">
         <v>2</v>
       </c>
-      <c r="G243" s="45">
+      <c r="G243" s="37">
         <v>44043</v>
       </c>
       <c r="H243" s="13">
@@ -9505,7 +9105,7 @@
       <c r="F244" s="7">
         <v>1</v>
       </c>
-      <c r="G244" s="45">
+      <c r="G244" s="37">
         <v>44043</v>
       </c>
       <c r="H244" s="13">
@@ -9540,7 +9140,7 @@
       <c r="F245" s="22">
         <v>5</v>
       </c>
-      <c r="G245" s="45">
+      <c r="G245" s="37">
         <v>44043</v>
       </c>
       <c r="H245" s="19">
@@ -9575,7 +9175,7 @@
       <c r="F246" s="22">
         <v>2</v>
       </c>
-      <c r="G246" s="45">
+      <c r="G246" s="37">
         <v>44043</v>
       </c>
       <c r="H246" s="19">
@@ -9610,7 +9210,7 @@
       <c r="F247" s="22">
         <v>1</v>
       </c>
-      <c r="G247" s="45">
+      <c r="G247" s="37">
         <v>44043</v>
       </c>
       <c r="H247" s="19">
@@ -9645,7 +9245,7 @@
       <c r="F248" s="7">
         <v>3</v>
       </c>
-      <c r="G248" s="45">
+      <c r="G248" s="37">
         <v>44043</v>
       </c>
       <c r="H248" s="13">
@@ -9680,7 +9280,7 @@
       <c r="F249" s="7">
         <v>1</v>
       </c>
-      <c r="G249" s="45">
+      <c r="G249" s="37">
         <v>44043</v>
       </c>
       <c r="H249" s="13">
@@ -9715,7 +9315,7 @@
       <c r="F250" s="22">
         <v>2</v>
       </c>
-      <c r="G250" s="45">
+      <c r="G250" s="37">
         <v>44043</v>
       </c>
       <c r="H250" s="19">
@@ -9750,7 +9350,7 @@
       <c r="F251" s="7">
         <v>1</v>
       </c>
-      <c r="G251" s="45">
+      <c r="G251" s="37">
         <v>44043</v>
       </c>
       <c r="H251" s="13">
@@ -9785,7 +9385,7 @@
       <c r="F252" s="7">
         <v>5</v>
       </c>
-      <c r="G252" s="45">
+      <c r="G252" s="37">
         <v>44043</v>
       </c>
       <c r="H252" s="13">
@@ -9820,7 +9420,7 @@
       <c r="F253" s="16">
         <v>1</v>
       </c>
-      <c r="G253" s="45">
+      <c r="G253" s="37">
         <v>44043</v>
       </c>
       <c r="H253" s="19">
@@ -9855,7 +9455,7 @@
       <c r="F254" s="10">
         <v>2</v>
       </c>
-      <c r="G254" s="45">
+      <c r="G254" s="37">
         <v>44043</v>
       </c>
       <c r="H254" s="13">
@@ -9890,7 +9490,7 @@
       <c r="F255" s="10">
         <v>5</v>
       </c>
-      <c r="G255" s="45">
+      <c r="G255" s="37">
         <v>44043</v>
       </c>
       <c r="H255" s="13">
@@ -9925,7 +9525,7 @@
       <c r="F256" s="10">
         <v>4</v>
       </c>
-      <c r="G256" s="45">
+      <c r="G256" s="37">
         <v>44043</v>
       </c>
       <c r="H256" s="13">
@@ -9960,7 +9560,7 @@
       <c r="F257" s="16">
         <v>3</v>
       </c>
-      <c r="G257" s="45">
+      <c r="G257" s="37">
         <v>44043</v>
       </c>
       <c r="H257" s="19">
@@ -9995,7 +9595,7 @@
       <c r="F258" s="10">
         <v>3</v>
       </c>
-      <c r="G258" s="45">
+      <c r="G258" s="37">
         <v>44043</v>
       </c>
       <c r="H258" s="13">
@@ -10030,7 +9630,7 @@
       <c r="F259" s="16">
         <v>1</v>
       </c>
-      <c r="G259" s="45">
+      <c r="G259" s="37">
         <v>44043</v>
       </c>
       <c r="H259" s="19">
@@ -10065,7 +9665,7 @@
       <c r="F260" s="10">
         <v>4</v>
       </c>
-      <c r="G260" s="45">
+      <c r="G260" s="37">
         <v>44043</v>
       </c>
       <c r="H260" s="13">
@@ -10100,7 +9700,7 @@
       <c r="F261" s="16">
         <v>4</v>
       </c>
-      <c r="G261" s="45">
+      <c r="G261" s="37">
         <v>44043</v>
       </c>
       <c r="H261" s="19">
@@ -10135,7 +9735,7 @@
       <c r="F262" s="10">
         <v>3</v>
       </c>
-      <c r="G262" s="45">
+      <c r="G262" s="37">
         <v>44043</v>
       </c>
       <c r="H262" s="13">
@@ -10170,7 +9770,7 @@
       <c r="F263" s="10">
         <v>1</v>
       </c>
-      <c r="G263" s="45">
+      <c r="G263" s="37">
         <v>44043</v>
       </c>
       <c r="H263" s="13">
@@ -10205,7 +9805,7 @@
       <c r="F264" s="16">
         <v>1</v>
       </c>
-      <c r="G264" s="45">
+      <c r="G264" s="37">
         <v>44043</v>
       </c>
       <c r="H264" s="19">
@@ -10240,7 +9840,7 @@
       <c r="F265" s="10">
         <v>2</v>
       </c>
-      <c r="G265" s="45">
+      <c r="G265" s="37">
         <v>44043</v>
       </c>
       <c r="H265" s="13">
@@ -10275,7 +9875,7 @@
       <c r="F266" s="10">
         <v>4</v>
       </c>
-      <c r="G266" s="45">
+      <c r="G266" s="37">
         <v>44043</v>
       </c>
       <c r="H266" s="13">
@@ -10310,7 +9910,7 @@
       <c r="F267" s="16">
         <v>3</v>
       </c>
-      <c r="G267" s="45">
+      <c r="G267" s="37">
         <v>44043</v>
       </c>
       <c r="H267" s="19">
@@ -10345,7 +9945,7 @@
       <c r="F268" s="10">
         <v>2</v>
       </c>
-      <c r="G268" s="45">
+      <c r="G268" s="37">
         <v>44043</v>
       </c>
       <c r="H268" s="13">
@@ -10380,7 +9980,7 @@
       <c r="F269" s="10">
         <v>5</v>
       </c>
-      <c r="G269" s="45">
+      <c r="G269" s="37">
         <v>44043</v>
       </c>
       <c r="H269" s="13">
@@ -10415,7 +10015,7 @@
       <c r="F270" s="16">
         <v>1</v>
       </c>
-      <c r="G270" s="45">
+      <c r="G270" s="37">
         <v>44043</v>
       </c>
       <c r="H270" s="19">
@@ -10450,7 +10050,7 @@
       <c r="F271" s="16">
         <v>1</v>
       </c>
-      <c r="G271" s="45">
+      <c r="G271" s="37">
         <v>44043</v>
       </c>
       <c r="H271" s="19">
@@ -10485,7 +10085,7 @@
       <c r="F272" s="10">
         <v>2</v>
       </c>
-      <c r="G272" s="45">
+      <c r="G272" s="37">
         <v>44043</v>
       </c>
       <c r="H272" s="13">
@@ -10520,7 +10120,7 @@
       <c r="F273" s="10">
         <v>4</v>
       </c>
-      <c r="G273" s="45">
+      <c r="G273" s="37">
         <v>44043</v>
       </c>
       <c r="H273" s="13">
@@ -10555,7 +10155,7 @@
       <c r="F274" s="16">
         <v>5</v>
       </c>
-      <c r="G274" s="45">
+      <c r="G274" s="37">
         <v>44043</v>
       </c>
       <c r="H274" s="19">
@@ -10590,7 +10190,7 @@
       <c r="F275" s="16">
         <v>2</v>
       </c>
-      <c r="G275" s="45">
+      <c r="G275" s="37">
         <v>44043</v>
       </c>
       <c r="H275" s="19">
@@ -10625,7 +10225,7 @@
       <c r="F276" s="10">
         <v>4</v>
       </c>
-      <c r="G276" s="45">
+      <c r="G276" s="37">
         <v>44043</v>
       </c>
       <c r="H276" s="13">
@@ -10660,7 +10260,7 @@
       <c r="F277" s="16">
         <v>3</v>
       </c>
-      <c r="G277" s="45">
+      <c r="G277" s="37">
         <v>44043</v>
       </c>
       <c r="H277" s="19">
@@ -10695,7 +10295,7 @@
       <c r="F278" s="22">
         <v>5</v>
       </c>
-      <c r="G278" s="45">
+      <c r="G278" s="37">
         <v>44043</v>
       </c>
       <c r="H278" s="19">
@@ -10730,7 +10330,7 @@
       <c r="F279" s="7">
         <v>3</v>
       </c>
-      <c r="G279" s="45">
+      <c r="G279" s="37">
         <v>44043</v>
       </c>
       <c r="H279" s="13">
@@ -10765,7 +10365,7 @@
       <c r="F280" s="22">
         <v>3</v>
       </c>
-      <c r="G280" s="45">
+      <c r="G280" s="37">
         <v>44043</v>
       </c>
       <c r="H280" s="19">
@@ -10800,7 +10400,7 @@
       <c r="F281" s="7">
         <v>2</v>
       </c>
-      <c r="G281" s="45">
+      <c r="G281" s="37">
         <v>44043</v>
       </c>
       <c r="H281" s="13">
@@ -10835,7 +10435,7 @@
       <c r="F282" s="7">
         <v>5</v>
       </c>
-      <c r="G282" s="45">
+      <c r="G282" s="37">
         <v>44043</v>
       </c>
       <c r="H282" s="13">
@@ -10870,7 +10470,7 @@
       <c r="F283" s="7">
         <v>3</v>
       </c>
-      <c r="G283" s="45">
+      <c r="G283" s="37">
         <v>44043</v>
       </c>
       <c r="H283" s="13">
@@ -10905,7 +10505,7 @@
       <c r="F284" s="22">
         <v>1</v>
       </c>
-      <c r="G284" s="45">
+      <c r="G284" s="37">
         <v>44043</v>
       </c>
       <c r="H284" s="19">
@@ -10940,7 +10540,7 @@
       <c r="F285" s="22">
         <v>4</v>
       </c>
-      <c r="G285" s="45">
+      <c r="G285" s="37">
         <v>44043</v>
       </c>
       <c r="H285" s="19">
@@ -10975,7 +10575,7 @@
       <c r="F286" s="22">
         <v>4</v>
       </c>
-      <c r="G286" s="45">
+      <c r="G286" s="37">
         <v>44043</v>
       </c>
       <c r="H286" s="19">
@@ -11010,7 +10610,7 @@
       <c r="F287" s="7">
         <v>4</v>
       </c>
-      <c r="G287" s="45">
+      <c r="G287" s="37">
         <v>44043</v>
       </c>
       <c r="H287" s="13">
@@ -11045,7 +10645,7 @@
       <c r="F288" s="22">
         <v>4</v>
       </c>
-      <c r="G288" s="45">
+      <c r="G288" s="37">
         <v>44043</v>
       </c>
       <c r="H288" s="19">
@@ -11080,7 +10680,7 @@
       <c r="F289" s="22">
         <v>2</v>
       </c>
-      <c r="G289" s="45">
+      <c r="G289" s="37">
         <v>44043</v>
       </c>
       <c r="H289" s="19">
@@ -11115,7 +10715,7 @@
       <c r="F290" s="7">
         <v>2</v>
       </c>
-      <c r="G290" s="45">
+      <c r="G290" s="37">
         <v>44043</v>
       </c>
       <c r="H290" s="13">
@@ -11150,7 +10750,7 @@
       <c r="F291" s="7">
         <v>5</v>
       </c>
-      <c r="G291" s="45">
+      <c r="G291" s="37">
         <v>44043</v>
       </c>
       <c r="H291" s="13">
@@ -11185,7 +10785,7 @@
       <c r="F292" s="7">
         <v>4</v>
       </c>
-      <c r="G292" s="45">
+      <c r="G292" s="37">
         <v>44043</v>
       </c>
       <c r="H292" s="13">
@@ -11220,7 +10820,7 @@
       <c r="F293" s="7">
         <v>5</v>
       </c>
-      <c r="G293" s="45">
+      <c r="G293" s="37">
         <v>44043</v>
       </c>
       <c r="H293" s="13">
@@ -11255,7 +10855,7 @@
       <c r="F294" s="7">
         <v>4</v>
       </c>
-      <c r="G294" s="45">
+      <c r="G294" s="37">
         <v>44043</v>
       </c>
       <c r="H294" s="13">
@@ -11290,7 +10890,7 @@
       <c r="F295" s="22">
         <v>2</v>
       </c>
-      <c r="G295" s="45">
+      <c r="G295" s="37">
         <v>44043</v>
       </c>
       <c r="H295" s="19">
@@ -11325,7 +10925,7 @@
       <c r="F296" s="7">
         <v>2</v>
       </c>
-      <c r="G296" s="45">
+      <c r="G296" s="37">
         <v>44043</v>
       </c>
       <c r="H296" s="13">
@@ -11360,7 +10960,7 @@
       <c r="F297" s="22">
         <v>3</v>
       </c>
-      <c r="G297" s="45">
+      <c r="G297" s="37">
         <v>44043</v>
       </c>
       <c r="H297" s="19">
@@ -11395,7 +10995,7 @@
       <c r="F298" s="22">
         <v>2</v>
       </c>
-      <c r="G298" s="45">
+      <c r="G298" s="37">
         <v>44043</v>
       </c>
       <c r="H298" s="19">
@@ -11430,7 +11030,7 @@
       <c r="F299" s="22">
         <v>4</v>
       </c>
-      <c r="G299" s="45">
+      <c r="G299" s="37">
         <v>44043</v>
       </c>
       <c r="H299" s="19">
@@ -11465,7 +11065,7 @@
       <c r="F300" s="7">
         <v>4</v>
       </c>
-      <c r="G300" s="45">
+      <c r="G300" s="37">
         <v>44043</v>
       </c>
       <c r="H300" s="13">
@@ -11500,7 +11100,7 @@
       <c r="F301" s="22">
         <v>3</v>
       </c>
-      <c r="G301" s="45">
+      <c r="G301" s="37">
         <v>44043</v>
       </c>
       <c r="H301" s="19">
@@ -11535,7 +11135,7 @@
       <c r="F302" s="7">
         <v>4</v>
       </c>
-      <c r="G302" s="45">
+      <c r="G302" s="37">
         <v>44043</v>
       </c>
       <c r="H302" s="13">
@@ -11570,7 +11170,7 @@
       <c r="F303" s="22">
         <v>5</v>
       </c>
-      <c r="G303" s="45">
+      <c r="G303" s="37">
         <v>44043</v>
       </c>
       <c r="H303" s="19">
@@ -11605,7 +11205,7 @@
       <c r="F304" s="22">
         <v>4</v>
       </c>
-      <c r="G304" s="45">
+      <c r="G304" s="37">
         <v>44043</v>
       </c>
       <c r="H304" s="19">
@@ -11640,7 +11240,7 @@
       <c r="F305" s="7">
         <v>2</v>
       </c>
-      <c r="G305" s="45">
+      <c r="G305" s="37">
         <v>44043</v>
       </c>
       <c r="H305" s="13">
@@ -11675,7 +11275,7 @@
       <c r="F306" s="7">
         <v>5</v>
       </c>
-      <c r="G306" s="45">
+      <c r="G306" s="37">
         <v>44043</v>
       </c>
       <c r="H306" s="13">
@@ -11710,7 +11310,7 @@
       <c r="F307" s="22">
         <v>5</v>
       </c>
-      <c r="G307" s="45">
+      <c r="G307" s="37">
         <v>44043</v>
       </c>
       <c r="H307" s="19">
@@ -11745,7 +11345,7 @@
       <c r="F308" s="7">
         <v>3</v>
       </c>
-      <c r="G308" s="45">
+      <c r="G308" s="37">
         <v>44043</v>
       </c>
       <c r="H308" s="13">
@@ -11780,7 +11380,7 @@
       <c r="F309" s="7">
         <v>4</v>
       </c>
-      <c r="G309" s="45">
+      <c r="G309" s="37">
         <v>44043</v>
       </c>
       <c r="H309" s="13">
@@ -11815,7 +11415,7 @@
       <c r="F310" s="22">
         <v>2</v>
       </c>
-      <c r="G310" s="45">
+      <c r="G310" s="37">
         <v>44043</v>
       </c>
       <c r="H310" s="19">
@@ -11851,7 +11451,7 @@
       <c r="F311" s="22">
         <v>5</v>
       </c>
-      <c r="G311" s="45">
+      <c r="G311" s="37">
         <v>44043</v>
       </c>
       <c r="H311" s="19">
@@ -11886,7 +11486,7 @@
       <c r="F312" s="7">
         <v>5</v>
       </c>
-      <c r="G312" s="45">
+      <c r="G312" s="37">
         <v>44043</v>
       </c>
       <c r="H312" s="13">
@@ -11921,7 +11521,7 @@
       <c r="F313" s="7">
         <v>1</v>
       </c>
-      <c r="G313" s="45">
+      <c r="G313" s="37">
         <v>44043</v>
       </c>
       <c r="H313" s="13">
@@ -11956,7 +11556,7 @@
       <c r="F314" s="7">
         <v>1</v>
       </c>
-      <c r="G314" s="45">
+      <c r="G314" s="37">
         <v>44043</v>
       </c>
       <c r="H314" s="13">
@@ -11991,7 +11591,7 @@
       <c r="F315" s="7">
         <v>4</v>
       </c>
-      <c r="G315" s="45">
+      <c r="G315" s="37">
         <v>44043</v>
       </c>
       <c r="H315" s="13">
@@ -12026,7 +11626,7 @@
       <c r="F316" s="7">
         <v>3</v>
       </c>
-      <c r="G316" s="45">
+      <c r="G316" s="37">
         <v>44043</v>
       </c>
       <c r="H316" s="13">
@@ -12061,7 +11661,7 @@
       <c r="F317" s="10">
         <v>4</v>
       </c>
-      <c r="G317" s="45">
+      <c r="G317" s="37">
         <v>44043</v>
       </c>
       <c r="H317" s="13">
@@ -12096,7 +11696,7 @@
       <c r="F318" s="16">
         <v>5</v>
       </c>
-      <c r="G318" s="45">
+      <c r="G318" s="37">
         <v>44043</v>
       </c>
       <c r="H318" s="19">
@@ -12132,7 +11732,7 @@
       <c r="F319" s="10">
         <v>1</v>
       </c>
-      <c r="G319" s="45">
+      <c r="G319" s="37">
         <v>44043</v>
       </c>
       <c r="H319" s="13">
@@ -12167,7 +11767,7 @@
       <c r="F320" s="10">
         <v>3</v>
       </c>
-      <c r="G320" s="45">
+      <c r="G320" s="37">
         <v>44043</v>
       </c>
       <c r="H320" s="13">
@@ -12202,7 +11802,7 @@
       <c r="F321" s="16">
         <v>5</v>
       </c>
-      <c r="G321" s="45">
+      <c r="G321" s="37">
         <v>44043</v>
       </c>
       <c r="H321" s="19">
@@ -12237,7 +11837,7 @@
       <c r="F322" s="16">
         <v>4</v>
       </c>
-      <c r="G322" s="45">
+      <c r="G322" s="37">
         <v>44043</v>
       </c>
       <c r="H322" s="19">
@@ -12272,7 +11872,7 @@
       <c r="F323" s="16">
         <v>2</v>
       </c>
-      <c r="G323" s="45">
+      <c r="G323" s="37">
         <v>44043</v>
       </c>
       <c r="H323" s="19">
@@ -12307,7 +11907,7 @@
       <c r="F324" s="10">
         <v>1</v>
       </c>
-      <c r="G324" s="45">
+      <c r="G324" s="37">
         <v>44043</v>
       </c>
       <c r="H324" s="13">
@@ -12342,7 +11942,7 @@
       <c r="F325" s="10">
         <v>2</v>
       </c>
-      <c r="G325" s="45">
+      <c r="G325" s="37">
         <v>44043</v>
       </c>
       <c r="H325" s="13">
@@ -12377,7 +11977,7 @@
       <c r="F326" s="16">
         <v>2</v>
       </c>
-      <c r="G326" s="45">
+      <c r="G326" s="37">
         <v>44043</v>
       </c>
       <c r="H326" s="19">
@@ -12412,7 +12012,7 @@
       <c r="F327" s="10">
         <v>1</v>
       </c>
-      <c r="G327" s="45">
+      <c r="G327" s="37">
         <v>44043</v>
       </c>
       <c r="H327" s="13">
@@ -12447,7 +12047,7 @@
       <c r="F328" s="16">
         <v>4</v>
       </c>
-      <c r="G328" s="45">
+      <c r="G328" s="37">
         <v>44043</v>
       </c>
       <c r="H328" s="19">
@@ -12483,7 +12083,7 @@
       <c r="F329" s="16">
         <v>3</v>
       </c>
-      <c r="G329" s="45">
+      <c r="G329" s="37">
         <v>44043</v>
       </c>
       <c r="H329" s="19">
@@ -12518,7 +12118,7 @@
       <c r="F330" s="16">
         <v>4</v>
       </c>
-      <c r="G330" s="45">
+      <c r="G330" s="37">
         <v>44043</v>
       </c>
       <c r="H330" s="19">
@@ -12553,7 +12153,7 @@
       <c r="F331" s="16">
         <v>4</v>
       </c>
-      <c r="G331" s="45">
+      <c r="G331" s="37">
         <v>44043</v>
       </c>
       <c r="H331" s="19">
@@ -12588,7 +12188,7 @@
       <c r="F332" s="10">
         <v>2</v>
       </c>
-      <c r="G332" s="45">
+      <c r="G332" s="37">
         <v>44043</v>
       </c>
       <c r="H332" s="13">
@@ -12623,7 +12223,7 @@
       <c r="F333" s="10">
         <v>2</v>
       </c>
-      <c r="G333" s="45">
+      <c r="G333" s="37">
         <v>44043</v>
       </c>
       <c r="H333" s="13">
@@ -12658,7 +12258,7 @@
       <c r="F334" s="16">
         <v>5</v>
       </c>
-      <c r="G334" s="45">
+      <c r="G334" s="37">
         <v>44043</v>
       </c>
       <c r="H334" s="19">
@@ -12693,7 +12293,7 @@
       <c r="F335" s="16">
         <v>1</v>
       </c>
-      <c r="G335" s="45">
+      <c r="G335" s="37">
         <v>44043</v>
       </c>
       <c r="H335" s="19">
@@ -12728,7 +12328,7 @@
       <c r="F336" s="16">
         <v>5</v>
       </c>
-      <c r="G336" s="45">
+      <c r="G336" s="37">
         <v>44043</v>
       </c>
       <c r="H336" s="19">
@@ -12763,7 +12363,7 @@
       <c r="F337" s="10">
         <v>5</v>
       </c>
-      <c r="G337" s="45">
+      <c r="G337" s="37">
         <v>44043</v>
       </c>
       <c r="H337" s="13">
@@ -12798,7 +12398,7 @@
       <c r="F338" s="16">
         <v>5</v>
       </c>
-      <c r="G338" s="45">
+      <c r="G338" s="37">
         <v>44043</v>
       </c>
       <c r="H338" s="19">
@@ -12833,7 +12433,7 @@
       <c r="F339" s="10">
         <v>2</v>
       </c>
-      <c r="G339" s="45">
+      <c r="G339" s="37">
         <v>44043</v>
       </c>
       <c r="H339" s="13">
@@ -12868,7 +12468,7 @@
       <c r="F340" s="16">
         <v>2</v>
       </c>
-      <c r="G340" s="45">
+      <c r="G340" s="37">
         <v>44043</v>
       </c>
       <c r="H340" s="19">
@@ -12903,7 +12503,7 @@
       <c r="F341" s="16">
         <v>2</v>
       </c>
-      <c r="G341" s="45">
+      <c r="G341" s="37">
         <v>44043</v>
       </c>
       <c r="H341" s="19">
@@ -12938,7 +12538,7 @@
       <c r="F342" s="10">
         <v>1</v>
       </c>
-      <c r="G342" s="45">
+      <c r="G342" s="37">
         <v>44043</v>
       </c>
       <c r="H342" s="13">
@@ -12973,7 +12573,7 @@
       <c r="F343" s="16">
         <v>1</v>
       </c>
-      <c r="G343" s="45">
+      <c r="G343" s="37">
         <v>44043</v>
       </c>
       <c r="H343" s="19">
@@ -13008,7 +12608,7 @@
       <c r="F344" s="16">
         <v>1</v>
       </c>
-      <c r="G344" s="45">
+      <c r="G344" s="37">
         <v>44043</v>
       </c>
       <c r="H344" s="19">
@@ -13043,7 +12643,7 @@
       <c r="F345" s="16">
         <v>3</v>
       </c>
-      <c r="G345" s="45">
+      <c r="G345" s="37">
         <v>44043</v>
       </c>
       <c r="H345" s="19">
@@ -13078,7 +12678,7 @@
       <c r="F346" s="16">
         <v>2</v>
       </c>
-      <c r="G346" s="45">
+      <c r="G346" s="37">
         <v>44043</v>
       </c>
       <c r="H346" s="19">
@@ -13113,7 +12713,7 @@
       <c r="F347" s="10">
         <v>2</v>
       </c>
-      <c r="G347" s="45">
+      <c r="G347" s="37">
         <v>44043</v>
       </c>
       <c r="H347" s="13">
@@ -13148,7 +12748,7 @@
       <c r="F348" s="16">
         <v>5</v>
       </c>
-      <c r="G348" s="45">
+      <c r="G348" s="37">
         <v>44043</v>
       </c>
       <c r="H348" s="19">
@@ -13183,7 +12783,7 @@
       <c r="F349" s="16">
         <v>1</v>
       </c>
-      <c r="G349" s="45">
+      <c r="G349" s="37">
         <v>44043</v>
       </c>
       <c r="H349" s="19">
@@ -13218,7 +12818,7 @@
       <c r="F350" s="10">
         <v>5</v>
       </c>
-      <c r="G350" s="45">
+      <c r="G350" s="37">
         <v>44043</v>
       </c>
       <c r="H350" s="13">
@@ -13253,7 +12853,7 @@
       <c r="F351" s="16">
         <v>2</v>
       </c>
-      <c r="G351" s="45">
+      <c r="G351" s="37">
         <v>44043</v>
       </c>
       <c r="H351" s="19">
@@ -13288,7 +12888,7 @@
       <c r="F352" s="10">
         <v>5</v>
       </c>
-      <c r="G352" s="45">
+      <c r="G352" s="37">
         <v>44043</v>
       </c>
       <c r="H352" s="13">
@@ -13323,7 +12923,7 @@
       <c r="F353" s="16">
         <v>3</v>
       </c>
-      <c r="G353" s="45">
+      <c r="G353" s="37">
         <v>44043</v>
       </c>
       <c r="H353" s="19">
@@ -13358,7 +12958,7 @@
       <c r="F354" s="16">
         <v>4</v>
       </c>
-      <c r="G354" s="45">
+      <c r="G354" s="37">
         <v>44043</v>
       </c>
       <c r="H354" s="19">
@@ -13394,7 +12994,7 @@
       <c r="F355" s="16">
         <v>3</v>
       </c>
-      <c r="G355" s="45">
+      <c r="G355" s="37">
         <v>44043</v>
       </c>
       <c r="H355" s="19">
@@ -13429,7 +13029,7 @@
       <c r="F356" s="10">
         <v>2</v>
       </c>
-      <c r="G356" s="45">
+      <c r="G356" s="37">
         <v>44043</v>
       </c>
       <c r="H356" s="13">
@@ -13464,7 +13064,7 @@
       <c r="F357" s="16">
         <v>3</v>
       </c>
-      <c r="G357" s="45">
+      <c r="G357" s="37">
         <v>44043</v>
       </c>
       <c r="H357" s="19">
@@ -13499,7 +13099,7 @@
       <c r="F358" s="10">
         <v>2</v>
       </c>
-      <c r="G358" s="45">
+      <c r="G358" s="37">
         <v>44043</v>
       </c>
       <c r="H358" s="13">
@@ -13534,7 +13134,7 @@
       <c r="F359" s="10">
         <v>2</v>
       </c>
-      <c r="G359" s="45">
+      <c r="G359" s="37">
         <v>44043</v>
       </c>
       <c r="H359" s="13">
@@ -13569,7 +13169,7 @@
       <c r="F360" s="10">
         <v>1</v>
       </c>
-      <c r="G360" s="45">
+      <c r="G360" s="37">
         <v>44043</v>
       </c>
       <c r="H360" s="13">
@@ -13604,7 +13204,7 @@
       <c r="F361" s="16">
         <v>1</v>
       </c>
-      <c r="G361" s="45">
+      <c r="G361" s="37">
         <v>44043</v>
       </c>
       <c r="H361" s="19">
@@ -13639,7 +13239,7 @@
       <c r="F362" s="16">
         <v>1</v>
       </c>
-      <c r="G362" s="45">
+      <c r="G362" s="37">
         <v>44043</v>
       </c>
       <c r="H362" s="19">
@@ -13674,7 +13274,7 @@
       <c r="F363" s="16">
         <v>5</v>
       </c>
-      <c r="G363" s="45">
+      <c r="G363" s="37">
         <v>44043</v>
       </c>
       <c r="H363" s="19">
@@ -13709,7 +13309,7 @@
       <c r="F364" s="10">
         <v>2</v>
       </c>
-      <c r="G364" s="45">
+      <c r="G364" s="37">
         <v>44043</v>
       </c>
       <c r="H364" s="13">
@@ -13744,7 +13344,7 @@
       <c r="F365" s="10">
         <v>3</v>
       </c>
-      <c r="G365" s="45">
+      <c r="G365" s="37">
         <v>44043</v>
       </c>
       <c r="H365" s="13">
@@ -13779,7 +13379,7 @@
       <c r="F366" s="16">
         <v>1</v>
       </c>
-      <c r="G366" s="45">
+      <c r="G366" s="37">
         <v>44043</v>
       </c>
       <c r="H366" s="19">
@@ -13815,7 +13415,7 @@
       <c r="F367" s="10">
         <v>3</v>
       </c>
-      <c r="G367" s="45">
+      <c r="G367" s="37">
         <v>44043</v>
       </c>
       <c r="H367" s="13">
@@ -13850,7 +13450,7 @@
       <c r="F368" s="10">
         <v>2</v>
       </c>
-      <c r="G368" s="45">
+      <c r="G368" s="37">
         <v>44043</v>
       </c>
       <c r="H368" s="13">
@@ -13885,7 +13485,7 @@
       <c r="F369" s="10">
         <v>3</v>
       </c>
-      <c r="G369" s="45">
+      <c r="G369" s="37">
         <v>44043</v>
       </c>
       <c r="H369" s="13">
@@ -13920,7 +13520,7 @@
       <c r="F370" s="10">
         <v>5</v>
       </c>
-      <c r="G370" s="45">
+      <c r="G370" s="37">
         <v>44043</v>
       </c>
       <c r="H370" s="13">
@@ -13955,7 +13555,7 @@
       <c r="F371" s="10">
         <v>1</v>
       </c>
-      <c r="G371" s="45">
+      <c r="G371" s="37">
         <v>44043</v>
       </c>
       <c r="H371" s="13">
@@ -13990,7 +13590,7 @@
       <c r="F372" s="10">
         <v>1</v>
       </c>
-      <c r="G372" s="45">
+      <c r="G372" s="37">
         <v>44043</v>
       </c>
       <c r="H372" s="13">
@@ -14025,7 +13625,7 @@
       <c r="F373" s="10">
         <v>1</v>
       </c>
-      <c r="G373" s="45">
+      <c r="G373" s="37">
         <v>44043</v>
       </c>
       <c r="H373" s="13">
@@ -14060,7 +13660,7 @@
       <c r="F374" s="16">
         <v>3</v>
       </c>
-      <c r="G374" s="45">
+      <c r="G374" s="37">
         <v>44043</v>
       </c>
       <c r="H374" s="19">
@@ -14095,7 +13695,7 @@
       <c r="F375" s="16">
         <v>5</v>
       </c>
-      <c r="G375" s="45">
+      <c r="G375" s="37">
         <v>44043</v>
       </c>
       <c r="H375" s="19">
@@ -14131,7 +13731,7 @@
       <c r="F376" s="10">
         <v>4</v>
       </c>
-      <c r="G376" s="45">
+      <c r="G376" s="37">
         <v>44043</v>
       </c>
       <c r="H376" s="13">
@@ -14166,7 +13766,7 @@
       <c r="F377" s="16">
         <v>1</v>
       </c>
-      <c r="G377" s="45">
+      <c r="G377" s="37">
         <v>44043</v>
       </c>
       <c r="H377" s="19">
@@ -14201,7 +13801,7 @@
       <c r="F378" s="10">
         <v>2</v>
       </c>
-      <c r="G378" s="45">
+      <c r="G378" s="37">
         <v>44043</v>
       </c>
       <c r="H378" s="13">
@@ -14236,7 +13836,7 @@
       <c r="F379" s="10">
         <v>4</v>
       </c>
-      <c r="G379" s="45">
+      <c r="G379" s="37">
         <v>44043</v>
       </c>
       <c r="H379" s="13">
@@ -14271,7 +13871,7 @@
       <c r="F380" s="16">
         <v>5</v>
       </c>
-      <c r="G380" s="45">
+      <c r="G380" s="37">
         <v>44043</v>
       </c>
       <c r="H380" s="19">
@@ -14306,7 +13906,7 @@
       <c r="F381" s="10">
         <v>2</v>
       </c>
-      <c r="G381" s="45">
+      <c r="G381" s="37">
         <v>44043</v>
       </c>
       <c r="H381" s="13">
@@ -14341,7 +13941,7 @@
       <c r="F382" s="10">
         <v>1</v>
       </c>
-      <c r="G382" s="45">
+      <c r="G382" s="37">
         <v>44043</v>
       </c>
       <c r="H382" s="13">
@@ -14376,7 +13976,7 @@
       <c r="F383" s="10">
         <v>5</v>
       </c>
-      <c r="G383" s="45">
+      <c r="G383" s="37">
         <v>44043</v>
       </c>
       <c r="H383" s="13">
@@ -14411,7 +14011,7 @@
       <c r="F384" s="10">
         <v>2</v>
       </c>
-      <c r="G384" s="45">
+      <c r="G384" s="37">
         <v>44043</v>
       </c>
       <c r="H384" s="13">
@@ -14446,7 +14046,7 @@
       <c r="F385" s="16">
         <v>3</v>
       </c>
-      <c r="G385" s="45">
+      <c r="G385" s="37">
         <v>44043</v>
       </c>
       <c r="H385" s="19">
@@ -14481,7 +14081,7 @@
       <c r="F386" s="10">
         <v>2</v>
       </c>
-      <c r="G386" s="45">
+      <c r="G386" s="37">
         <v>44043</v>
       </c>
       <c r="H386" s="13">
@@ -34898,7 +34498,7 @@
   <customSheetViews>
     <customSheetView guid="{7C575CA0-4279-4B75-9B8E-BE4441FF8C91}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:I967" xr:uid="{00000000-0000-0000-0000-000000000000}">
+      <autoFilter ref="A1:I967" xr:uid="{D9E3A80A-67C7-4E35-B568-BB201E84946D}">
         <filterColumn colId="2">
           <filters>
             <filter val="1"/>
@@ -34910,1271 +34510,4 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
-        <v>2</v>
-      </c>
-      <c r="B3" s="36">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
-        <v>3</v>
-      </c>
-      <c r="B4" s="36">
-        <v>5.27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
-        <v>4</v>
-      </c>
-      <c r="B5" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
-        <v>5</v>
-      </c>
-      <c r="B6" s="36">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
-        <v>6</v>
-      </c>
-      <c r="B7" s="36">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="36">
-        <v>7</v>
-      </c>
-      <c r="B8" s="36">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="36">
-        <v>8</v>
-      </c>
-      <c r="B9" s="36">
-        <v>3.94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
-        <v>9</v>
-      </c>
-      <c r="B10" s="36">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
-        <v>10</v>
-      </c>
-      <c r="B11" s="36">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="36">
-        <v>11</v>
-      </c>
-      <c r="B12" s="36">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
-        <v>12</v>
-      </c>
-      <c r="B13" s="36">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="36">
-        <v>13</v>
-      </c>
-      <c r="B14" s="36">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
-        <v>14</v>
-      </c>
-      <c r="B15" s="36">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="36">
-        <v>15</v>
-      </c>
-      <c r="B16" s="36">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="36">
-        <v>16</v>
-      </c>
-      <c r="B17" s="36">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="36">
-        <v>17</v>
-      </c>
-      <c r="B18" s="36">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
-        <v>18</v>
-      </c>
-      <c r="B19" s="36">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="36">
-        <v>19</v>
-      </c>
-      <c r="B20" s="36">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="36">
-        <v>20</v>
-      </c>
-      <c r="B21" s="36">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="38">
-        <f>AVERAGE(B2:B21)</f>
-        <v>3.1655000000000006</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="98.6640625" customWidth="1"/>
-    <col min="2" max="6" width="14.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-    </row>
-    <row r="18" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
 </file>